--- a/medicine/Handicap/Catherine_Barthélémy/Catherine_Barthélémy.xlsx
+++ b/medicine/Handicap/Catherine_Barthélémy/Catherine_Barthélémy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Catherine_Barth%C3%A9l%C3%A9my</t>
+          <t>Catherine_Barthélémy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catherine Barthélemy, née le 21 mars 1946 à Adriers, est une physiologiste et pédopsychiatre française. Elle est professeur de médecine honoraire au CHRU de Tours. Elle est élue présidente de l'Académie nationale de médecine pour 2024.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Catherine_Barth%C3%A9l%C3%A9my</t>
+          <t>Catherine_Barthélémy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après ses études de médecine sur le site Bretonneau du CHRU de Tours[1], elle fait une partie de ses recherches au Collège de France à Paris, puis elle revient à Tours où elle exerce au centre hospitalier universitaire.
-Elle se spécialise dans le domaine de l'autisme et arrive à la tête de l'équipe Imagerie et Cerveau « Autisme et troubles du développement ». En 1985, lors d'un congrès à Tours, elle présente sa théorie sur les origines neurologiques de l'autisme, réfutant que l'autisme soit déclenché par un trouble affectif avec la mère. Elle se fait huer par les pédopsychiatres (formés à la psychanalyse) présents dans la salle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après ses études de médecine sur le site Bretonneau du CHRU de Tours, elle fait une partie de ses recherches au Collège de France à Paris, puis elle revient à Tours où elle exerce au centre hospitalier universitaire.
+Elle se spécialise dans le domaine de l'autisme et arrive à la tête de l'équipe Imagerie et Cerveau « Autisme et troubles du développement ». En 1985, lors d'un congrès à Tours, elle présente sa théorie sur les origines neurologiques de l'autisme, réfutant que l'autisme soit déclenché par un trouble affectif avec la mère. Elle se fait huer par les pédopsychiatres (formés à la psychanalyse) présents dans la salle.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Catherine_Barth%C3%A9l%C3%A9my</t>
+          <t>Catherine_Barthélémy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Responsabilités institutionnelles et associatives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Catherine Barthélemy a été, jusqu'en 2011, chef du service universitaire d'explorations fonctionnelles et de neurophysiologie en pédopsychiatrie du CHRU de Tours. Elle était responsable, au sein de l'équipe Inserm Unité 930,  Autisme et troubles du développement, de l'équipe de recherche « Autisme », qui travaille à préciser dans l'autisme les relations qui existent entre les anomalies comportementales et cognitives et les dysfonctionnements neuronaux sous-jacents.
-Catherine Barthélemy est cofondatrice, avec Duché et Lelord, de l'association pour la recherche sur l'autisme et la prévention des inadaptations (ARAPI), dont elle est l'actuelle vice-présidente[3].
-Elle est membre titulaire de l'Académie nationale de médecine. Elle est élue vice-présidente de l'Académie de Médecine pour l'année 2023 et pour la présidence en 2024[4]. Elle est intronisée présidente le 9 janvier 2024[5].
-Des travaux sont conduits par Charles Aussilloux, qui dirige la Fédération française de psychiatrie, et Catherine Barthélemy : ils aboutiront à la rédaction d'un guide de bonnes pratiques concernant les méthodes de prise en charge de l'autisme[6].
+Catherine Barthélemy est cofondatrice, avec Duché et Lelord, de l'association pour la recherche sur l'autisme et la prévention des inadaptations (ARAPI), dont elle est l'actuelle vice-présidente.
+Elle est membre titulaire de l'Académie nationale de médecine. Elle est élue vice-présidente de l'Académie de Médecine pour l'année 2023 et pour la présidence en 2024. Elle est intronisée présidente le 9 janvier 2024.
+Des travaux sont conduits par Charles Aussilloux, qui dirige la Fédération française de psychiatrie, et Catherine Barthélemy : ils aboutiront à la rédaction d'un guide de bonnes pratiques concernant les méthodes de prise en charge de l'autisme.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Catherine_Barth%C3%A9l%C3%A9my</t>
+          <t>Catherine_Barthélémy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'autisme de l'enfant : la thérapie d'échange et de développement (avec Laurence Hameury et Gilbert Lelord), Paris, Expansion scientifique française, 1995, XIII-396 p.  (ISBN 2-7046-1465-2)
 L'autisme : de la recherche à la pratique par Berthoz, Christian Andres, Catherine Barthélemy, Jean Massion, Bernadette Rogé, Paris, Odile Jacob, 2005, 482 p.  (ISBN 2-7381-1616-7)
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Catherine_Barth%C3%A9l%C3%A9my</t>
+          <t>Catherine_Barthélémy</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +627,14 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1999 :  Officier de l'ordre des Palmes académiques
 2015 :  Officier de la Légion d'honneur
-2016 : Prix d'honneur de l'Inserm[7]
-2019 :  Commandeure de l'ordre national du Mérite. Elle est directement promue au grade de commandeure le 29 mai 2019[8].</t>
+2016 : Prix d'honneur de l'Inserm
+2019 :  Commandeure de l'ordre national du Mérite. Elle est directement promue au grade de commandeure le 29 mai 2019.</t>
         </is>
       </c>
     </row>
